--- a/API 문서.xlsx
+++ b/API 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranjeongkim/Desktop/SPARTA/myproject/Seoul-GooDooBang-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C80D40-C8C6-8D4D-B303-9275219F4DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480E17C-8866-8448-A26D-D4A89C4BA717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="740" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="540" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>프로젝트</t>
   </si>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(JSON 형식) 'result'= 'success', 'msg'= '구두 고치러 갑시다.'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(</t>
     </r>
@@ -110,6 +106,14 @@
   </si>
   <si>
     <t>구두방 정보 조회 (Read)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(JSON 형식) 'result'= 'success', 'gdb_list'= 구두방 정보 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44426542586861723730434761786a</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +438,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -483,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -503,30 +507,32 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1">
       <c r="A6" s="4"/>
